--- a/instr_encoding.xlsx
+++ b/instr_encoding.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saket\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saket\Desktop\ELL Assn\assgn1bc-Saket003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5AD25-2FED-40AD-8774-5643078BB26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48D1F0-2F8C-4DE4-9489-0951B347CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{755BE9D3-A5AC-4EBA-8A43-9E4E78A89186}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="47">
   <si>
     <t>Operation</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>11111</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>010</t>
   </si>
 </sst>
 </file>
@@ -182,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,12 +238,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D798810B-A780-4371-AF57-D06E75FA7816}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,67 +570,66 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="9.81640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="9.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="8.7265625" style="3"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -615,15 +641,15 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(B2,C2,D2)</f>
         <v>0000000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C2)</f>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G15" si="0" xml:space="preserve"> _xlfn.CONCAT(C2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -653,13 +679,13 @@
       <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="Q2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(F2:I2)),BIN2HEX(_xlfn.CONCAT(J2:K2)),BIN2HEX(_xlfn.CONCAT(L2:O2)),BIN2HEX(_xlfn.CONCAT(P2,"000")))</f>
         <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -669,15 +695,15 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E27" si="0" xml:space="preserve"> _xlfn.CONCAT(B3,C3,D3)</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E36" si="1" xml:space="preserve"> _xlfn.CONCAT(B3,C3,D3)</f>
         <v>0000001</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G16" si="1" xml:space="preserve"> _xlfn.CONCAT(C3)</f>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -707,13 +733,13 @@
       <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q29" si="2" xml:space="preserve"> _xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(F3:I3)),BIN2HEX(_xlfn.CONCAT(J3:K3)),BIN2HEX(_xlfn.CONCAT(L3:O3)),BIN2HEX(_xlfn.CONCAT(P3,"000")))</f>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q36" si="2" xml:space="preserve"> _xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(F3:I3)),BIN2HEX(_xlfn.CONCAT(J3:K3)),BIN2HEX(_xlfn.CONCAT(L3:O3)),BIN2HEX(_xlfn.CONCAT(P3,"000")))</f>
         <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -723,15 +749,15 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>0000010</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>0000010</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -761,13 +787,13 @@
       <c r="P4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="3" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="2"/>
         <v>C000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,15 +803,15 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>0000011</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>0000011</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -815,13 +841,13 @@
       <c r="P5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="2"/>
         <v>C000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -833,15 +859,15 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>0000100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>0000100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -871,13 +897,13 @@
       <c r="P6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="3" t="str">
+      <c r="Q6" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(F6:I6)),BIN2HEX(_xlfn.CONCAT(J6:K6)),BIN2HEX(_xlfn.CONCAT(L6:O6)),BIN2HEX(_xlfn.CONCAT(P6,"000")))</f>
         <v>8200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,15 +913,15 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>0000101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>0000101</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -925,13 +951,13 @@
       <c r="P7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="2"/>
         <v>8200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,15 +967,15 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>0000110</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>0000110</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -979,13 +1005,13 @@
       <c r="P8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="3" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="2"/>
         <v>C200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -995,15 +1021,15 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000111</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>0000111</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1033,13 +1059,13 @@
       <c r="P9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="3" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="2"/>
         <v>C200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1051,15 +1077,15 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>0010100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>0010100</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1089,13 +1115,13 @@
       <c r="P10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(F10:I10)),BIN2HEX(_xlfn.CONCAT(J10:K10)),BIN2HEX(_xlfn.CONCAT(L10:O10)),BIN2HEX(_xlfn.CONCAT(P10,"000")))</f>
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1105,15 +1131,15 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>0010101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>0010101</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1143,13 +1169,13 @@
       <c r="P11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="3" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1159,15 +1185,15 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>0010110</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>0010110</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1197,13 +1223,13 @@
       <c r="P12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="3" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1213,15 +1239,15 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>0010111</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>0010111</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1251,13 +1277,13 @@
       <c r="P13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1269,15 +1295,15 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>0111010</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>0111010</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1307,13 +1333,13 @@
       <c r="P14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="2"/>
         <v>C100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1323,15 +1349,15 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>0111011</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>0111011</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1361,13 +1387,13 @@
       <c r="P15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="2"/>
         <v>C100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1379,14 +1405,14 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" t="str">
         <f t="shared" ref="E16:E17" si="3" xml:space="preserve"> _xlfn.CONCAT(B16,C16,D16)</f>
         <v>0111110</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G16" t="str">
         <f t="shared" ref="G16:G17" si="4" xml:space="preserve"> _xlfn.CONCAT(C16)</f>
         <v>1</v>
       </c>
@@ -1417,13 +1443,13 @@
       <c r="P16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="2"/>
         <v>4080</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1433,14 +1459,14 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="3"/>
         <v>0111111</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -1471,17 +1497,17 @@
       <c r="P17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="2"/>
         <v>4080</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1489,15 +1515,15 @@
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" t="str">
         <f t="shared" ref="E18:E19" si="5" xml:space="preserve"> _xlfn.CONCAT(B18,C18,D18)</f>
-        <v>0111110</v>
+        <v>1000010</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" ref="G18:G27" si="6" xml:space="preserve"> _xlfn.CONCAT(C18)</f>
+      <c r="G18" t="str">
+        <f t="shared" ref="G18:G36" si="6" xml:space="preserve"> _xlfn.CONCAT(C18)</f>
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1527,15 +1553,15 @@
       <c r="P18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1543,14 +1569,14 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="5"/>
-        <v>0111111</v>
+        <v>1000011</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -1581,13 +1607,13 @@
       <c r="P19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="2"/>
         <v>4040</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1599,14 +1625,14 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
         <v>1001110</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -1626,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>8</v>
@@ -1637,13 +1663,13 @@
       <c r="P20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>4020</v>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>4060</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1653,14 +1679,14 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
         <v>1001111</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -1680,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>8</v>
@@ -1691,13 +1717,13 @@
       <c r="P21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>4020</v>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>4060</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1709,14 +1735,14 @@
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
         <v>1010000</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1736,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>7</v>
@@ -1747,13 +1773,13 @@
       <c r="P22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0010</v>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>0050</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1763,14 +1789,14 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
         <v>1010001</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1790,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>7</v>
@@ -1801,13 +1827,13 @@
       <c r="P23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0010</v>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>0050</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1819,14 +1845,14 @@
       <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
         <v>0110100</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="3" t="str">
+      <c r="G24" t="str">
         <f t="shared" ref="G24:G25" si="7" xml:space="preserve"> _xlfn.CONCAT(C24)</f>
         <v>0</v>
       </c>
@@ -1857,13 +1883,13 @@
       <c r="P24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="3" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="2"/>
         <v>0000</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1873,14 +1899,14 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
         <v>0110101</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1911,13 +1937,13 @@
       <c r="P25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="3" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="2"/>
         <v>0000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1929,14 +1955,14 @@
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
         <v>1111100</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1967,13 +1993,13 @@
       <c r="P26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="3" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="2"/>
         <v>0008</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1983,14 +2009,14 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
         <v>1111101</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="3" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2021,29 +2047,489 @@
       <c r="P27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="3" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="2"/>
         <v>0008</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>0011000</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>0011001</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>0011010</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>C400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>0011011</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>C400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>0011100</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>0011101</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>0011110</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>C600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>0011111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>C600</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
